--- a/runs/run321/NotionalETEOutput321.xlsx
+++ b/runs/run321/NotionalETEOutput321.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT3_State_Update</t>
+    <t>Missile_HIGHWIND1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT3_242.MISSILE_SOMERSAULT3_242</t>
+    <t>MISSILE_HIGHWIND1_342.MISSILE_HIGHWIND1_342</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT3</t>
+    <t>MISSILE_HIGHWIND1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1425.566417534862</v>
+        <v>-1489.665369766401</v>
       </c>
       <c r="J2">
-        <v>2031.668089777682</v>
+        <v>2077.009172365762</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1409.00358288717</v>
+        <v>-1432.669059466483</v>
       </c>
       <c r="J3">
-        <v>2017.292321347961</v>
+        <v>1887.5762908549</v>
       </c>
       <c r="K3">
-        <v>289.8330076184658</v>
+        <v>299.3708856397144</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1432.111872664629</v>
+        <v>-1433.850164224928</v>
       </c>
       <c r="J4">
-        <v>1850.085188177943</v>
+        <v>1879.829482944212</v>
       </c>
       <c r="K4">
-        <v>577.9254493724707</v>
+        <v>596.3054765478438</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1362.955383187698</v>
+        <v>-1382.461244026723</v>
       </c>
       <c r="J5">
-        <v>1774.945195722937</v>
+        <v>1922.722286671163</v>
       </c>
       <c r="K5">
-        <v>856.8922090068249</v>
+        <v>841.3956604110605</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1362.068993102408</v>
+        <v>-1416.526190825327</v>
       </c>
       <c r="J6">
-        <v>1838.225677627834</v>
+        <v>1874.556791897419</v>
       </c>
       <c r="K6">
-        <v>1154.43681969256</v>
+        <v>1072.628419239779</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1396.899485254071</v>
+        <v>-1324.460714299749</v>
       </c>
       <c r="J7">
-        <v>1742.701713654846</v>
+        <v>1812.709811762792</v>
       </c>
       <c r="K7">
-        <v>1354.329911985263</v>
+        <v>1358.283603953065</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1364.83473769923</v>
+        <v>-1290.944673024626</v>
       </c>
       <c r="J8">
-        <v>1658.883349328478</v>
+        <v>1777.191097908041</v>
       </c>
       <c r="K8">
-        <v>1607.368036722908</v>
+        <v>1581.562511849482</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-98.37794929286991</v>
+        <v>-96.72566694298222</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1274.860411577197</v>
+        <v>-1337.263919375749</v>
       </c>
       <c r="J9">
-        <v>1697.048502229095</v>
+        <v>1701.57200256374</v>
       </c>
       <c r="K9">
-        <v>1860.616760108129</v>
+        <v>1782.169532619021</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>224.004402579511</v>
+        <v>217.541641553227</v>
       </c>
       <c r="G10">
-        <v>-80.59824945776042</v>
+        <v>-80.19399496217119</v>
       </c>
       <c r="H10">
-        <v>860.7596356639335</v>
+        <v>884.4517845063618</v>
       </c>
       <c r="I10">
-        <v>-1184.800557780862</v>
+        <v>-1285.141978648529</v>
       </c>
       <c r="J10">
-        <v>1601.539203805375</v>
+        <v>1535.558931475023</v>
       </c>
       <c r="K10">
-        <v>1948.865345497777</v>
+        <v>1982.754502167306</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>172.6228551640239</v>
+        <v>163.8474240404239</v>
       </c>
       <c r="G11">
-        <v>-65.6709388105332</v>
+        <v>-68.18265825709815</v>
       </c>
       <c r="H11">
-        <v>1018.816989477982</v>
+        <v>1022.408960550305</v>
       </c>
       <c r="I11">
-        <v>-1212.64523634237</v>
+        <v>-1240.999071337053</v>
       </c>
       <c r="J11">
-        <v>1508.870764810709</v>
+        <v>1509.695847535396</v>
       </c>
       <c r="K11">
-        <v>2114.62650885815</v>
+        <v>2161.023576314783</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>133.8074904265683</v>
+        <v>145.1070998090445</v>
       </c>
       <c r="G12">
-        <v>-48.4561692022648</v>
+        <v>-50.47737189948963</v>
       </c>
       <c r="H12">
-        <v>1220.429714365574</v>
+        <v>1125.774670858147</v>
       </c>
       <c r="I12">
-        <v>-1213.738551205485</v>
+        <v>-1161.70419604667</v>
       </c>
       <c r="J12">
-        <v>1476.762473390399</v>
+        <v>1458.055223457885</v>
       </c>
       <c r="K12">
-        <v>2252.162566284408</v>
+        <v>2471.567041795743</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>118.4256546761782</v>
+        <v>121.7974078827801</v>
       </c>
       <c r="G13">
-        <v>-33.54213999377721</v>
+        <v>-33.87972157668528</v>
       </c>
       <c r="H13">
-        <v>1311.463665585823</v>
+        <v>1239.8424476564</v>
       </c>
       <c r="I13">
-        <v>-1090.859023781984</v>
+        <v>-1106.720533448859</v>
       </c>
       <c r="J13">
-        <v>1449.771768173767</v>
+        <v>1434.35349217607</v>
       </c>
       <c r="K13">
-        <v>2557.33321534231</v>
+        <v>2578.039235235618</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>109.3975528294617</v>
+        <v>113.5172072420227</v>
       </c>
       <c r="G14">
-        <v>-16.85999681211227</v>
+        <v>-18.12897059948736</v>
       </c>
       <c r="H14">
-        <v>1390.731369974599</v>
+        <v>1291.059595199642</v>
       </c>
       <c r="I14">
-        <v>-1111.846973980817</v>
+        <v>-1125.356400763782</v>
       </c>
       <c r="J14">
-        <v>1389.446203322006</v>
+        <v>1467.834634095036</v>
       </c>
       <c r="K14">
-        <v>2758.378758718806</v>
+        <v>2636.15870277862</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>102.036790372755</v>
+        <v>99.74323278756137</v>
       </c>
       <c r="G15">
-        <v>-0.8860049362203413</v>
+        <v>-0.8916925885654498</v>
       </c>
       <c r="H15">
-        <v>1390.148812795645</v>
+        <v>1448.294378791611</v>
       </c>
       <c r="I15">
-        <v>-1084.209774637718</v>
+        <v>-1041.51868184386</v>
       </c>
       <c r="J15">
-        <v>1334.99870682071</v>
+        <v>1425.727999935979</v>
       </c>
       <c r="K15">
-        <v>2787.782435351064</v>
+        <v>2646.063935516533</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>93.34856569395149</v>
+        <v>89.43596926534859</v>
       </c>
       <c r="G16">
-        <v>15.97191988874148</v>
+        <v>16.00274459106998</v>
       </c>
       <c r="H16">
-        <v>1423.967934125787</v>
+        <v>1442.812765176145</v>
       </c>
       <c r="I16">
-        <v>-969.4440127165425</v>
+        <v>-1029.195136393874</v>
       </c>
       <c r="J16">
-        <v>1374.41429495947</v>
+        <v>1254.468992810317</v>
       </c>
       <c r="K16">
-        <v>3018.186892507164</v>
+        <v>2977.865919248847</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>88.18685024925547</v>
+        <v>83.69799432369339</v>
       </c>
       <c r="G17">
-        <v>33.10119226509399</v>
+        <v>33.6013188184284</v>
       </c>
       <c r="H17">
-        <v>1413.973493614601</v>
+        <v>1524.411161606138</v>
       </c>
       <c r="I17">
-        <v>-956.7313421201806</v>
+        <v>-973.0173221971208</v>
       </c>
       <c r="J17">
-        <v>1281.233947505508</v>
+        <v>1239.9316974595</v>
       </c>
       <c r="K17">
-        <v>2934.448935730775</v>
+        <v>3073.594499742846</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>78.53871839271488</v>
+        <v>81.73097277822741</v>
       </c>
       <c r="G18">
-        <v>48.49048163468812</v>
+        <v>50.05911447035188</v>
       </c>
       <c r="H18">
-        <v>1461.168337077685</v>
+        <v>1520.15360625064</v>
       </c>
       <c r="I18">
-        <v>-959.9004637883864</v>
+        <v>-958.2769710273711</v>
       </c>
       <c r="J18">
-        <v>1200.078878279737</v>
+        <v>1281.375463693297</v>
       </c>
       <c r="K18">
-        <v>3005.900444372865</v>
+        <v>3123.970422929795</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>80.96333175082626</v>
+        <v>74.87050508316838</v>
       </c>
       <c r="G19">
-        <v>65.18209049327866</v>
+        <v>63.61966084524229</v>
       </c>
       <c r="H19">
-        <v>1572.368926562286</v>
+        <v>1481.248660363882</v>
       </c>
       <c r="I19">
-        <v>-902.0830631738482</v>
+        <v>-851.7658559241474</v>
       </c>
       <c r="J19">
-        <v>1117.787689715884</v>
+        <v>1145.263928430926</v>
       </c>
       <c r="K19">
-        <v>3175.396043437866</v>
+        <v>3072.56300433265</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>70.46206864209111</v>
+        <v>76.68201828975177</v>
       </c>
       <c r="G20">
-        <v>83.88214060714937</v>
+        <v>85.17437366256182</v>
       </c>
       <c r="H20">
-        <v>1628.328486786146</v>
+        <v>1501.764287221121</v>
       </c>
       <c r="I20">
-        <v>-799.5048414169777</v>
+        <v>-877.7998882925064</v>
       </c>
       <c r="J20">
-        <v>1153.920082823995</v>
+        <v>1078.892247100961</v>
       </c>
       <c r="K20">
-        <v>3279.675190150114</v>
+        <v>3197.114281859937</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>73.7932301953558</v>
+        <v>73.9407306188385</v>
       </c>
       <c r="G21">
-        <v>102.1583916841358</v>
+        <v>97.05527885198671</v>
       </c>
       <c r="H21">
-        <v>1528.917022008441</v>
+        <v>1661.164697529839</v>
       </c>
       <c r="I21">
-        <v>-779.8872650470148</v>
+        <v>-819.7028606611738</v>
       </c>
       <c r="J21">
-        <v>1053.565979067417</v>
+        <v>1041.136042568411</v>
       </c>
       <c r="K21">
-        <v>3198.12672400258</v>
+        <v>3275.499536277972</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>68.44526348932828</v>
+        <v>68.68696243097877</v>
       </c>
       <c r="G22">
-        <v>113.4067330613214</v>
+        <v>119.5854442978305</v>
       </c>
       <c r="H22">
-        <v>1639.869686100251</v>
+        <v>1649.273505372551</v>
       </c>
       <c r="I22">
-        <v>-722.1787792638556</v>
+        <v>-760.4112222214817</v>
       </c>
       <c r="J22">
-        <v>1004.473090925674</v>
+        <v>1035.992332108807</v>
       </c>
       <c r="K22">
-        <v>3211.030119086862</v>
+        <v>3173.385428078196</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>66.29283489497111</v>
+        <v>68.9807015070964</v>
       </c>
       <c r="G23">
-        <v>126.1073215289958</v>
+        <v>133.7244744085854</v>
       </c>
       <c r="H23">
-        <v>1610.576556517798</v>
+        <v>1677.910063471932</v>
       </c>
       <c r="I23">
-        <v>-678.1245159644237</v>
+        <v>-724.3464009487714</v>
       </c>
       <c r="J23">
-        <v>1002.030827956344</v>
+        <v>968.2542325785754</v>
       </c>
       <c r="K23">
-        <v>3336.767604180069</v>
+        <v>3349.796842655231</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>60.39073811091642</v>
+        <v>60.86476060564416</v>
       </c>
       <c r="G24">
-        <v>145.0838295842773</v>
+        <v>142.6225469493958</v>
       </c>
       <c r="H24">
-        <v>1575.013792513846</v>
+        <v>1652.723388332729</v>
       </c>
       <c r="I24">
-        <v>-621.9158862403326</v>
+        <v>-663.7868633940984</v>
       </c>
       <c r="J24">
-        <v>891.5937774388379</v>
+        <v>958.3006777109326</v>
       </c>
       <c r="K24">
-        <v>3277.055270653523</v>
+        <v>3195.081705353693</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.09117408671804</v>
+        <v>63.83994218315203</v>
       </c>
       <c r="G25">
-        <v>162.3983513022438</v>
+        <v>159.316439060329</v>
       </c>
       <c r="H25">
-        <v>1754.990277743874</v>
+        <v>1627.840475633154</v>
       </c>
       <c r="I25">
-        <v>-623.8409345678951</v>
+        <v>-577.987128961266</v>
       </c>
       <c r="J25">
-        <v>840.9808158987031</v>
+        <v>857.3743657685628</v>
       </c>
       <c r="K25">
-        <v>3207.950701955964</v>
+        <v>3290.817111926378</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.53397397554036</v>
+        <v>59.56392826233675</v>
       </c>
       <c r="G26">
-        <v>173.7788247353987</v>
+        <v>183.274068585031</v>
       </c>
       <c r="H26">
-        <v>1652.49957015625</v>
+        <v>1642.60934456035</v>
       </c>
       <c r="I26">
-        <v>-530.3641009468935</v>
+        <v>-533.201108081953</v>
       </c>
       <c r="J26">
-        <v>816.6493034090477</v>
+        <v>807.9488750356039</v>
       </c>
       <c r="K26">
-        <v>3064.840475392965</v>
+        <v>2963.685325464055</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.7127324345179</v>
+        <v>55.78311023228396</v>
       </c>
       <c r="G27">
-        <v>195.694289970127</v>
+        <v>206.6216926330079</v>
       </c>
       <c r="H27">
-        <v>1650.046586355054</v>
+        <v>1739.972725020405</v>
       </c>
       <c r="I27">
-        <v>-472.7829682066512</v>
+        <v>-509.325863789861</v>
       </c>
       <c r="J27">
-        <v>746.2968850705516</v>
+        <v>786.841685015779</v>
       </c>
       <c r="K27">
-        <v>3133.206269825884</v>
+        <v>2988.395993895971</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>58.12664432858776</v>
+        <v>59.24377736809093</v>
       </c>
       <c r="G28">
-        <v>220.7263404019452</v>
+        <v>211.8654419370251</v>
       </c>
       <c r="H28">
-        <v>1689.345906875841</v>
+        <v>1786.522615309698</v>
       </c>
       <c r="I28">
-        <v>-450.2390863266194</v>
+        <v>-434.5081811940176</v>
       </c>
       <c r="J28">
-        <v>747.9113807141033</v>
+        <v>770.2186618699358</v>
       </c>
       <c r="K28">
-        <v>3050.816769455787</v>
+        <v>2978.896160943596</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.09918020794704</v>
+        <v>55.19515856316591</v>
       </c>
       <c r="G29">
-        <v>225.1728267163453</v>
+        <v>233.6639119133862</v>
       </c>
       <c r="H29">
-        <v>1664.957649830908</v>
+        <v>1754.518053288253</v>
       </c>
       <c r="I29">
-        <v>-399.3487761597899</v>
+        <v>-378.2072772149203</v>
       </c>
       <c r="J29">
-        <v>668.7654316908685</v>
+        <v>687.7000413686048</v>
       </c>
       <c r="K29">
-        <v>2963.40519404943</v>
+        <v>2936.267090215387</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.67423466097277</v>
+        <v>53.15396477840016</v>
       </c>
       <c r="G30">
-        <v>256.6082377902799</v>
+        <v>251.5750826235871</v>
       </c>
       <c r="H30">
-        <v>1699.745233323848</v>
+        <v>1738.221560209382</v>
       </c>
       <c r="I30">
-        <v>-319.5685854661843</v>
+        <v>-312.8040508587547</v>
       </c>
       <c r="J30">
-        <v>645.3460161136163</v>
+        <v>642.0115439444191</v>
       </c>
       <c r="K30">
-        <v>2836.27995274261</v>
+        <v>2813.191871772852</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.09758463674753</v>
+        <v>53.03019266115054</v>
       </c>
       <c r="G31">
-        <v>255.1448927079426</v>
+        <v>252.403744710001</v>
       </c>
       <c r="H31">
-        <v>1795.052938433109</v>
+        <v>1753.370006315472</v>
       </c>
       <c r="I31">
-        <v>-258.8336955741409</v>
+        <v>-263.4472398931467</v>
       </c>
       <c r="J31">
-        <v>609.8359726551525</v>
+        <v>587.5104417759351</v>
       </c>
       <c r="K31">
-        <v>2537.768060371152</v>
+        <v>2546.503301426751</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.24779799985905</v>
+        <v>52.3320471154804</v>
       </c>
       <c r="G32">
-        <v>282.9922227121862</v>
+        <v>292.4238728671036</v>
       </c>
       <c r="H32">
-        <v>1707.82097744086</v>
+        <v>1756.759197585764</v>
       </c>
       <c r="I32">
-        <v>-202.5592833649882</v>
+        <v>-217.2432884014536</v>
       </c>
       <c r="J32">
-        <v>540.2245850149756</v>
+        <v>567.4295626198399</v>
       </c>
       <c r="K32">
-        <v>2466.875422960707</v>
+        <v>2452.488079138301</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.94928786247126</v>
+        <v>50.44548271762022</v>
       </c>
       <c r="G33">
-        <v>281.7434956283175</v>
+        <v>303.7473080319288</v>
       </c>
       <c r="H33">
-        <v>1784.633588495616</v>
+        <v>1811.98911446812</v>
       </c>
       <c r="I33">
-        <v>-144.1137379238251</v>
+        <v>-145.8656921211229</v>
       </c>
       <c r="J33">
-        <v>471.4884179894498</v>
+        <v>494.2402296801236</v>
       </c>
       <c r="K33">
-        <v>2327.004497426577</v>
+        <v>2364.409957880261</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.39593839444925</v>
+        <v>46.88002403901964</v>
       </c>
       <c r="G34">
-        <v>317.781905761739</v>
+        <v>305.595321875969</v>
       </c>
       <c r="H34">
-        <v>1835.678512893653</v>
+        <v>1787.139519251149</v>
       </c>
       <c r="I34">
-        <v>-82.17229081452112</v>
+        <v>-82.19252968602846</v>
       </c>
       <c r="J34">
-        <v>459.7996278169398</v>
+        <v>422.6513161771924</v>
       </c>
       <c r="K34">
-        <v>2124.597447985581</v>
+        <v>2240.15118759462</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>45.95171971960394</v>
+        <v>49.96113080344886</v>
       </c>
       <c r="G35">
-        <v>321.3443724260395</v>
+        <v>317.5490378763682</v>
       </c>
       <c r="H35">
-        <v>1733.70262870346</v>
+        <v>1771.002777399971</v>
       </c>
       <c r="I35">
-        <v>-19.37286808141945</v>
+        <v>-18.37186596802069</v>
       </c>
       <c r="J35">
-        <v>375.8385922985117</v>
+        <v>389.3786440561772</v>
       </c>
       <c r="K35">
-        <v>2095.512416410804</v>
+        <v>2102.63809044943</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.53188944800624</v>
+        <v>47.62964491450052</v>
       </c>
       <c r="G36">
-        <v>330.9446804264709</v>
+        <v>352.6730833271142</v>
       </c>
       <c r="H36">
-        <v>1908.781044424186</v>
+        <v>1870.313999725479</v>
       </c>
       <c r="I36">
-        <v>46.05511067447059</v>
+        <v>48.69331203573677</v>
       </c>
       <c r="J36">
-        <v>355.7331279620574</v>
+        <v>344.4556486564276</v>
       </c>
       <c r="K36">
-        <v>1818.404676915078</v>
+        <v>1751.905845356311</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.79528611275768</v>
+        <v>48.52569863631771</v>
       </c>
       <c r="G37">
-        <v>363.3542348845968</v>
+        <v>367.345545709798</v>
       </c>
       <c r="H37">
-        <v>1902.663021548461</v>
+        <v>1846.916476741565</v>
       </c>
       <c r="I37">
-        <v>112.1721418627885</v>
+        <v>113.7503908179525</v>
       </c>
       <c r="J37">
-        <v>306.1485708116543</v>
+        <v>301.4784907485042</v>
       </c>
       <c r="K37">
-        <v>1646.925607429246</v>
+        <v>1649.195897679948</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.62134197243874</v>
+        <v>47.50566510040942</v>
       </c>
       <c r="G38">
-        <v>391.1017589381427</v>
+        <v>394.7323664551252</v>
       </c>
       <c r="H38">
-        <v>1865.238431531458</v>
+        <v>1857.557349838443</v>
       </c>
       <c r="I38">
-        <v>189.3088299734115</v>
+        <v>185.2355637575643</v>
       </c>
       <c r="J38">
-        <v>256.6723167743099</v>
+        <v>246.7835720187479</v>
       </c>
       <c r="K38">
-        <v>1326.027392553902</v>
+        <v>1461.865874068986</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.05046114559182</v>
+        <v>43.3018491871226</v>
       </c>
       <c r="G39">
-        <v>397.0722025192766</v>
+        <v>398.6814815589557</v>
       </c>
       <c r="H39">
-        <v>1915.788991629289</v>
+        <v>1803.126721594461</v>
       </c>
       <c r="I39">
-        <v>253.6583058063517</v>
+        <v>256.6429003395415</v>
       </c>
       <c r="J39">
-        <v>208.968075432178</v>
+        <v>196.9823914075156</v>
       </c>
       <c r="K39">
-        <v>1123.232751925508</v>
+        <v>1114.381277169791</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>45.82844122243115</v>
+        <v>42.96430302602746</v>
       </c>
       <c r="G40">
-        <v>416.9491580813702</v>
+        <v>408.9942846126217</v>
       </c>
       <c r="H40">
-        <v>1899.318815482733</v>
+        <v>1897.486886729981</v>
       </c>
       <c r="I40">
-        <v>333.5863586133003</v>
+        <v>326.5763204019305</v>
       </c>
       <c r="J40">
-        <v>150.1860039751708</v>
+        <v>144.2013115333959</v>
       </c>
       <c r="K40">
-        <v>893.9646147266919</v>
+        <v>937.6048491439818</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.11429938575697</v>
+        <v>44.65982873798746</v>
       </c>
       <c r="G41">
-        <v>433.2912124938262</v>
+        <v>434.9152680212418</v>
       </c>
       <c r="H41">
-        <v>1850.273165535796</v>
+        <v>1879.381101067664</v>
       </c>
       <c r="I41">
-        <v>401.0899697825379</v>
+        <v>398.5199283086228</v>
       </c>
       <c r="J41">
-        <v>106.3213161372654</v>
+        <v>103.0345775338867</v>
       </c>
       <c r="K41">
-        <v>631.8436739313644</v>
+        <v>599.9793104705938</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.34253160600931</v>
+        <v>41.42312686808867</v>
       </c>
       <c r="G42">
-        <v>423.0295153411518</v>
+        <v>439.7496695932685</v>
       </c>
       <c r="H42">
-        <v>1836.016522236962</v>
+        <v>1830.300373949291</v>
       </c>
       <c r="I42">
-        <v>488.4589867229371</v>
+        <v>492.3400860795876</v>
       </c>
       <c r="J42">
-        <v>55.0800767940223</v>
+        <v>53.47254755333122</v>
       </c>
       <c r="K42">
-        <v>330.1656202777622</v>
+        <v>352.5168108337832</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.38643598565815</v>
+        <v>41.3059400297002</v>
       </c>
       <c r="G43">
-        <v>452.3468904982425</v>
+        <v>461.3186158136523</v>
       </c>
       <c r="H43">
-        <v>1835.496205799998</v>
+        <v>1817.885492517632</v>
       </c>
       <c r="I43">
-        <v>555.7405664725808</v>
+        <v>542.4952747311545</v>
       </c>
       <c r="J43">
-        <v>5.530955753772292</v>
+        <v>5.038875074581737</v>
       </c>
       <c r="K43">
-        <v>34.95269187453367</v>
+        <v>32.38360268242117</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.71204972436416</v>
+        <v>42.37880980275226</v>
       </c>
       <c r="G44">
-        <v>480.448446428564</v>
+        <v>500.1638954179438</v>
       </c>
       <c r="H44">
-        <v>1818.373827084436</v>
+        <v>1847.276453354581</v>
       </c>
       <c r="I44">
-        <v>633.7453879263905</v>
+        <v>660.7337122608031</v>
       </c>
       <c r="J44">
-        <v>-42.33998863795916</v>
+        <v>-42.43843086288121</v>
       </c>
       <c r="K44">
-        <v>-283.3128278010001</v>
+        <v>-295.7627936031855</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.12148435730652</v>
+        <v>40.2204164415646</v>
       </c>
       <c r="G45">
-        <v>503.1690815030693</v>
+        <v>474.4854475863254</v>
       </c>
       <c r="H45">
-        <v>1987.866070029571</v>
+        <v>1994.917037840835</v>
       </c>
       <c r="I45">
-        <v>710.861848357084</v>
+        <v>687.1553936279442</v>
       </c>
       <c r="J45">
-        <v>-91.72652628642892</v>
+        <v>-89.29636639433923</v>
       </c>
       <c r="K45">
-        <v>-643.7039044552183</v>
+        <v>-624.3820721631523</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>42.37313191217238</v>
+        <v>38.92902579845612</v>
       </c>
       <c r="G46">
-        <v>489.2642469466452</v>
+        <v>533.4111546256312</v>
       </c>
       <c r="H46">
-        <v>1920.021522439256</v>
+        <v>1846.129116049241</v>
       </c>
       <c r="I46">
-        <v>780.6274473379317</v>
+        <v>794.6999647258338</v>
       </c>
       <c r="J46">
-        <v>-140.8732193706537</v>
+        <v>-140.0895904454894</v>
       </c>
       <c r="K46">
-        <v>-957.778700494899</v>
+        <v>-942.9239529603715</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.60559611749273</v>
+        <v>39.62197209503145</v>
       </c>
       <c r="G47">
-        <v>534.6747645569399</v>
+        <v>537.7562076133498</v>
       </c>
       <c r="H47">
-        <v>1886.869098568956</v>
+        <v>1984.109033085</v>
       </c>
       <c r="I47">
-        <v>879.1082582876899</v>
+        <v>853.2016029040171</v>
       </c>
       <c r="J47">
-        <v>-188.7629233547744</v>
+        <v>-186.1544753921666</v>
       </c>
       <c r="K47">
-        <v>-1357.006970080438</v>
+        <v>-1392.477050189577</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.44939842299681</v>
+        <v>40.71925819681559</v>
       </c>
       <c r="G48">
-        <v>539.1133786828007</v>
+        <v>536.661552181799</v>
       </c>
       <c r="H48">
-        <v>1921.620880429895</v>
+        <v>1903.538307570666</v>
       </c>
       <c r="I48">
-        <v>1001.439759205294</v>
+        <v>966.1936715366325</v>
       </c>
       <c r="J48">
-        <v>-249.0507711907607</v>
+        <v>-246.5509040240029</v>
       </c>
       <c r="K48">
-        <v>-1749.492514093377</v>
+        <v>-1621.725704210021</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.2188575937502</v>
+        <v>40.06246282936722</v>
       </c>
       <c r="G49">
-        <v>545.331593031068</v>
+        <v>544.9169041084842</v>
       </c>
       <c r="H49">
-        <v>1999.48641862999</v>
+        <v>1963.256180657864</v>
       </c>
       <c r="I49">
-        <v>1101.330714905598</v>
+        <v>1038.377610626028</v>
       </c>
       <c r="J49">
-        <v>-299.3035464016609</v>
+        <v>-286.4179235882641</v>
       </c>
       <c r="K49">
-        <v>-2042.916333127216</v>
+        <v>-2122.447245665788</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.03903686608713</v>
+        <v>40.33424191948087</v>
       </c>
       <c r="G50">
-        <v>583.3665227942971</v>
+        <v>603.3519249779093</v>
       </c>
       <c r="H50">
-        <v>2008.844159287197</v>
+        <v>1879.875868796606</v>
       </c>
       <c r="I50">
-        <v>1185.664215639111</v>
+        <v>1167.462992049324</v>
       </c>
       <c r="J50">
-        <v>-337.8668688976356</v>
+        <v>-344.9158986007956</v>
       </c>
       <c r="K50">
-        <v>-2478.379703614102</v>
+        <v>-2420.705805559016</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.1678037735232</v>
+        <v>38.99649139933999</v>
       </c>
       <c r="G51">
-        <v>617.3922545996751</v>
+        <v>616.4111788011257</v>
       </c>
       <c r="H51">
-        <v>1923.636240154725</v>
+        <v>1997.247301007388</v>
       </c>
       <c r="I51">
-        <v>1273.355824727364</v>
+        <v>1276.071123816407</v>
       </c>
       <c r="J51">
-        <v>-400.7704408512725</v>
+        <v>-371.9926127704312</v>
       </c>
       <c r="K51">
-        <v>-2946.8823031015</v>
+        <v>-2993.317574414209</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>39.39942030737314</v>
+        <v>37.67106271104679</v>
       </c>
       <c r="G52">
-        <v>583.276657153413</v>
+        <v>618.7261232724609</v>
       </c>
       <c r="H52">
-        <v>2029.714324843616</v>
+        <v>1997.632355018341</v>
       </c>
       <c r="I52">
-        <v>1298.365355081818</v>
+        <v>1409.529743422177</v>
       </c>
       <c r="J52">
-        <v>-445.5163241576663</v>
+        <v>-443.0763423690718</v>
       </c>
       <c r="K52">
-        <v>-3370.707645839072</v>
+        <v>-3476.554194516429</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.94738378591878</v>
+        <v>35.91884436349076</v>
       </c>
       <c r="G53">
-        <v>629.2506106682405</v>
+        <v>631.0975285951606</v>
       </c>
       <c r="H53">
-        <v>1929.432365198282</v>
+        <v>1979.118661574034</v>
       </c>
       <c r="I53">
-        <v>1386.160773549119</v>
+        <v>1385.659173018618</v>
       </c>
       <c r="J53">
-        <v>-481.6336527994372</v>
+        <v>-488.619949849523</v>
       </c>
       <c r="K53">
-        <v>-3692.475014283115</v>
+        <v>-3891.223028160083</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>37.66892220146109</v>
+        <v>35.95377684251793</v>
       </c>
       <c r="G54">
-        <v>614.6881243302158</v>
+        <v>650.3025514504918</v>
       </c>
       <c r="H54">
-        <v>1884.477519262074</v>
+        <v>2067.342601490044</v>
       </c>
       <c r="I54">
-        <v>1577.408833960082</v>
+        <v>1487.393789588516</v>
       </c>
       <c r="J54">
-        <v>-515.1788065359468</v>
+        <v>-541.5405205252488</v>
       </c>
       <c r="K54">
-        <v>-4340.200448517724</v>
+        <v>-4205.24618532702</v>
       </c>
     </row>
   </sheetData>
